--- a/biology/Zoologie/Abrosaurus/Abrosaurus.xlsx
+++ b/biology/Zoologie/Abrosaurus/Abrosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abrosaurus dongpoi
 Abrosaurus (nom scientifique signifiant « lézard délicat ») est un genre éteint de dinosaures sauropodes de taille moyenne anciennement classé dans la famille des camarasauridés. Il mesurait 9 mètres de long[réf. nécessaire] et vivait au Callovien (Jurassique moyen), il y a environ 165 millions d'années environ[réf. nécessaire].
@@ -515,7 +527,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses restes furent trouvés en Chine en 1984 et tout d'abord décrits sous le nom d' « Abrosaurus gigantorhinus » (Ouyang, 1986).
 La description officielle fut publiée par Ouyang en 1989, sous le nom incorrect d'« Abrosaurus dongpoensis ». C'est finalement le nom de Abrosaurus dongpoi qui a été retenu par la communauté scientifique[réf. nécessaire].
@@ -548,9 +562,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce crâne mesure 45,6 cm de long et rappelle fortement celui de Jobaria. Il se distingue, notamment, par un nombre exceptionnel de dents sur les mâchoires, par une crête nasale assez prononcée et des ouvertures narinales plus grandes que les orbites, d'où sa classification parmi les Macronaria[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce crâne mesure 45,6 cm de long et rappelle fortement celui de Jobaria. Il se distingue, notamment, par un nombre exceptionnel de dents sur les mâchoires, par une crête nasale assez prononcée et des ouvertures narinales plus grandes que les orbites, d'où sa classification parmi les Macronaria.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Inventaire des fossiles retrouvés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>A. dongpoi : un crâne complet[réf. nécessaire].
 Abrosaurus gigantorhinus</t>
